--- a/auxiliares/txt criado explicado.xlsx
+++ b/auxiliares/txt criado explicado.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EVENTOS" sheetId="1" r:id="rId1"/>
@@ -922,7 +922,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -962,6 +962,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,12 +1024,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1033,15 +1038,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1051,6 +1047,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1370,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:E34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1405,97 +1416,97 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1503,111 +1514,115 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -1631,16 +1646,14 @@
       <c r="E34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
+  <mergeCells count="7">
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A30:G30"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1680,44 +1693,44 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="F7" t="s">
         <v>118</v>
       </c>
@@ -1741,9 +1754,9 @@
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="F8" t="s">
         <v>119</v>
       </c>
@@ -1767,288 +1780,288 @@
       <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="15"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="15"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="15"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="15"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="15"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="15"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="B35" s="6"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="B46" s="6"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2060,15 +2073,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D64" activeCellId="1" sqref="B64:B71 D64:D71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2084,10 +2097,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C2" t="s">
@@ -2096,11 +2109,11 @@
       <c r="D2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C3" t="s">
@@ -2109,18 +2122,18 @@
       <c r="D3" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
       <c r="D4" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
       <c r="I4" t="s">
         <v>97</v>
       </c>
@@ -2141,15 +2154,15 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="D5" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
       <c r="I5" t="s">
         <v>98</v>
       </c>
@@ -2170,37 +2183,37 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
       <c r="D6" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="I6" s="16" t="s">
+      <c r="E6" s="2"/>
+      <c r="I6" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C7" t="s">
@@ -2209,29 +2222,29 @@
       <c r="D7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="I7" s="16" t="s">
+      <c r="E7" s="2"/>
+      <c r="I7" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C8" t="s">
@@ -2243,31 +2256,31 @@
       <c r="G8" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
       <c r="D9" t="s">
         <v>99</v>
       </c>
@@ -2276,11 +2289,11 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2"/>
       <c r="D10" t="s">
         <v>100</v>
       </c>
@@ -2289,11 +2302,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="2"/>
       <c r="D11" t="s">
         <v>122</v>
       </c>
@@ -2302,8 +2315,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C12" t="s">
@@ -2312,14 +2325,14 @@
       <c r="D12" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
       <c r="G12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C13" t="s">
@@ -2328,7 +2341,7 @@
       <c r="D13" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
       <c r="G13" t="s">
         <v>124</v>
       </c>
@@ -2352,15 +2365,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
       <c r="D14" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
       <c r="G14" t="s">
         <v>125</v>
       </c>
@@ -2384,33 +2397,33 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
       <c r="D15" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
       <c r="G15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
       <c r="D16" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C17" t="s">
@@ -2419,11 +2432,11 @@
       <c r="D17" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C18" t="s">
@@ -2432,52 +2445,52 @@
       <c r="D18" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="2"/>
       <c r="G18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="2"/>
       <c r="D19" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="2"/>
       <c r="D20" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="2"/>
       <c r="D21" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
       <c r="G21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C22" t="s">
@@ -2486,14 +2499,14 @@
       <c r="D22" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="2"/>
       <c r="G22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C23" t="s">
@@ -2502,47 +2515,47 @@
       <c r="D23" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="2"/>
       <c r="D24" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="2"/>
       <c r="G24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="2"/>
       <c r="D25" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="2"/>
       <c r="D26" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C27" t="s">
@@ -2551,14 +2564,14 @@
       <c r="D27" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="2"/>
       <c r="G27" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C28" t="s">
@@ -2567,50 +2580,50 @@
       <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="2"/>
       <c r="G28" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="2"/>
       <c r="D29" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="2"/>
       <c r="D30" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="2"/>
       <c r="D31" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="2"/>
       <c r="G31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C32" t="s">
@@ -2619,11 +2632,11 @@
       <c r="D32" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C33" t="s">
@@ -2632,53 +2645,53 @@
       <c r="D33" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="2"/>
       <c r="D34" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="2"/>
       <c r="G34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="2"/>
       <c r="D35" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="2"/>
       <c r="G35" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="2"/>
       <c r="D36" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="2"/>
       <c r="G36" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C37" t="s">
@@ -2687,11 +2700,11 @@
       <c r="D37" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C38" t="s">
@@ -2700,55 +2713,55 @@
       <c r="D38" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="15"/>
+      <c r="B39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="2"/>
       <c r="D39" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="2"/>
       <c r="G39" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="2"/>
       <c r="D40" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="2"/>
       <c r="G40" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="2"/>
       <c r="D41" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="2"/>
       <c r="G41" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C42" t="s">
@@ -2757,14 +2770,14 @@
       <c r="D42" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="2"/>
       <c r="G42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C43" t="s">
@@ -2773,50 +2786,50 @@
       <c r="D43" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="2"/>
       <c r="G43" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="2"/>
       <c r="D44" t="s">
         <v>135</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="2"/>
       <c r="G44" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="2"/>
       <c r="D45" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="16"/>
+      <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="2"/>
       <c r="D46" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C47" t="s">
@@ -2825,11 +2838,11 @@
       <c r="D47" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="3"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="16"/>
+      <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C48" t="s">
@@ -2838,44 +2851,44 @@
       <c r="D48" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="2"/>
       <c r="D49" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="16"/>
+      <c r="B50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="2"/>
       <c r="D50" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="16"/>
+      <c r="B51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="2"/>
       <c r="D51" t="s">
         <v>135</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="13" t="s">
+      <c r="A52" s="16"/>
+      <c r="B52" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C52" t="s">
@@ -2884,11 +2897,11 @@
       <c r="D52" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C53" t="s">
@@ -2897,44 +2910,44 @@
       <c r="D53" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="3"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="16"/>
+      <c r="B54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="2"/>
       <c r="D54" t="s">
         <v>100</v>
       </c>
-      <c r="E54" s="3"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="16"/>
+      <c r="B55" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="2"/>
       <c r="D55" t="s">
         <v>122</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="2"/>
       <c r="D56" t="s">
         <v>135</v>
       </c>
-      <c r="E56" s="3"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-      <c r="B57" s="13" t="s">
+      <c r="A57" s="16"/>
+      <c r="B57" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C57" t="s">
@@ -2943,11 +2956,11 @@
       <c r="D57" t="s">
         <v>123</v>
       </c>
-      <c r="E57" s="3"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="3" t="s">
+      <c r="A58" s="16"/>
+      <c r="B58" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C58" t="s">
@@ -2956,11 +2969,11 @@
       <c r="D58" t="s">
         <v>100</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="16"/>
+      <c r="B59" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D59" t="s">
@@ -2968,8 +2981,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="3" t="s">
+      <c r="A60" s="16"/>
+      <c r="B60" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D60" t="s">
@@ -2977,8 +2990,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="3" t="s">
+      <c r="A61" s="16"/>
+      <c r="B61" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D61" t="s">
@@ -2986,8 +2999,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3" t="s">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C64" t="s">
@@ -2996,12 +3009,12 @@
       <c r="D64" t="s">
         <v>98</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C65" t="s">
@@ -3010,12 +3023,12 @@
       <c r="D65" t="s">
         <v>94</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3" t="s">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C66" t="s">
@@ -3024,12 +3037,12 @@
       <c r="D66" t="s">
         <v>123</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C67" t="s">
@@ -3038,59 +3051,59 @@
       <c r="D67" t="s">
         <v>100</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3" t="s">
+      <c r="A68" s="2"/>
+      <c r="B68" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3" t="s">
+      <c r="A69" s="2"/>
+      <c r="B69" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3" t="s">
+      <c r="A70" s="2"/>
+      <c r="B70" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="20" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3109,7 +3122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -3128,10 +3141,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C3" t="s">
@@ -3142,8 +3155,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C4" t="s">
@@ -3154,8 +3167,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C5" t="s">
@@ -3166,8 +3179,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C6" t="s">
@@ -3178,8 +3191,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C7" t="s">
@@ -3190,8 +3203,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C8" t="s">
@@ -3202,8 +3215,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C9" t="s">
@@ -3214,8 +3227,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C10" t="s">
@@ -3226,8 +3239,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C11" t="s">
@@ -3238,8 +3251,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C12" t="s">
@@ -3250,8 +3263,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C13" t="s">
@@ -3262,8 +3275,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C14" t="s">
@@ -3274,8 +3287,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C15" t="s">
@@ -3286,8 +3299,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C16" t="s">
@@ -3298,8 +3311,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C17" t="s">
@@ -3310,8 +3323,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C18" t="s">
@@ -3319,8 +3332,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C19" t="s">
@@ -3328,8 +3341,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C20" t="s">
@@ -3337,10 +3350,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C21" t="s">
@@ -3348,8 +3361,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C22" t="s">
@@ -3357,8 +3370,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C23" t="s">
@@ -3366,8 +3379,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C24" t="s">
@@ -3375,8 +3388,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C25" t="s">
@@ -3384,8 +3397,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C26" t="s">
@@ -3393,8 +3406,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C27" t="s">
@@ -3402,8 +3415,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C28" t="s">
@@ -3411,8 +3424,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C29" t="s">
@@ -3420,8 +3433,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C30" t="s">
@@ -3429,8 +3442,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C31" t="s">
@@ -3438,8 +3451,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C32" t="s">
@@ -3447,8 +3460,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C33" t="s">
@@ -3456,8 +3469,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C34" t="s">
@@ -3465,8 +3478,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C35" t="s">
@@ -3474,8 +3487,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C36" t="s">
@@ -3483,8 +3496,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C37" t="s">
@@ -3492,8 +3505,8 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C38" t="s">
@@ -3501,7 +3514,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C41" t="s">
@@ -3509,7 +3522,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C42" t="s">
@@ -3517,7 +3530,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C43" t="s">
@@ -3525,7 +3538,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C44" t="s">
@@ -3533,7 +3546,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C45" t="s">
@@ -3541,7 +3554,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C46" t="s">
@@ -3549,7 +3562,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C47" t="s">
@@ -3557,7 +3570,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C48" t="s">
@@ -3565,7 +3578,7 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C49" t="s">
@@ -3573,7 +3586,7 @@
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C50" t="s">
@@ -3581,7 +3594,7 @@
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C51" t="s">
@@ -3589,7 +3602,7 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C52" t="s">
@@ -3597,18 +3610,18 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
@@ -3617,27 +3630,27 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C58:G58"/>
     <mergeCell ref="A3:A20"/>
     <mergeCell ref="A21:A38"/>
     <mergeCell ref="C54:G54"/>
     <mergeCell ref="C55:G55"/>
     <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C58:G58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3648,8 +3661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3659,10 +3672,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C1" t="s">
@@ -3673,8 +3686,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C2" t="s">
@@ -3685,8 +3698,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C3" t="s">
@@ -3697,8 +3710,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C4" t="s">
@@ -3709,8 +3722,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C5" t="s">
@@ -3721,8 +3734,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C6" t="s">
@@ -3733,8 +3746,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C7" t="s">
@@ -3745,8 +3758,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C8" t="s">
@@ -3757,8 +3770,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C9" t="s">
@@ -3769,8 +3782,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C10" t="s">
@@ -3781,8 +3794,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C11" t="s">
@@ -3793,8 +3806,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C12" t="s">
@@ -3805,8 +3818,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C13" t="s">
@@ -3817,8 +3830,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C14" t="s">
@@ -3829,8 +3842,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C15" t="s">
@@ -3841,8 +3854,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C16" t="s">
@@ -3853,8 +3866,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C17" t="s">
@@ -3865,8 +3878,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C18" t="s">
@@ -3876,12 +3889,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="14"/>
+    <row r="19" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C20" t="s">
@@ -3892,7 +3905,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C21" t="s">
@@ -3903,7 +3916,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C22" t="s">
@@ -3914,7 +3927,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C23" t="s">
@@ -3925,7 +3938,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C24" t="s">
@@ -3936,7 +3949,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C25" t="s">
@@ -3947,7 +3960,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C26" t="s">
@@ -3958,7 +3971,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C27" t="s">
@@ -3969,7 +3982,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C29" t="s">
@@ -3980,7 +3993,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C30" t="s">
@@ -3991,7 +4004,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C31" t="s">
@@ -4002,7 +4015,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C32" t="s">
@@ -4013,16 +4026,16 @@
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="3"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="3"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="3"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="3"/>
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4038,7 +4051,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4054,7 +4067,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C3" t="s">
@@ -4071,7 +4084,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C4" t="s">
@@ -4088,7 +4101,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C5" t="s">
@@ -4105,7 +4118,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C6" t="s">
@@ -4122,7 +4135,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C7" t="s">
@@ -4139,7 +4152,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C8" t="s">
@@ -4156,7 +4169,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C9" t="s">
@@ -4173,7 +4186,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C10" t="s">
@@ -4190,7 +4203,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C12" t="s">
@@ -4207,7 +4220,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C13" t="s">
@@ -4224,7 +4237,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C14" t="s">
@@ -4241,7 +4254,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C15" t="s">

--- a/auxiliares/txt criado explicado.xlsx
+++ b/auxiliares/txt criado explicado.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="EVENTOS" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="258">
   <si>
     <t>EVENTOS</t>
   </si>
@@ -883,6 +883,15 @@
   </si>
   <si>
     <t>Amigos do primo do coiso;</t>
+  </si>
+  <si>
+    <t>aqui não deviam ser apenas sem candidaturas</t>
+  </si>
+  <si>
+    <t>e tenham candidaturas atribuidas</t>
+  </si>
+  <si>
+    <t>e não tenham decisao</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1056,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1057,11 +1071,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1381,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1432,6 +1441,9 @@
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -1448,6 +1460,12 @@
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -1523,13 +1541,13 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -1555,40 +1573,40 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1601,26 +1619,26 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2073,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2097,7 +2115,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2112,7 +2130,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2" t="s">
         <v>82</v>
       </c>
@@ -2125,7 +2143,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
@@ -2154,7 +2172,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2" t="s">
         <v>82</v>
       </c>
@@ -2183,7 +2201,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
@@ -2212,7 +2230,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
@@ -2243,7 +2261,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="2" t="s">
         <v>83</v>
       </c>
@@ -2276,7 +2294,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="2" t="s">
         <v>83</v>
       </c>
@@ -2289,7 +2307,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="2" t="s">
         <v>83</v>
       </c>
@@ -2302,7 +2320,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="2" t="s">
         <v>83</v>
       </c>
@@ -2315,7 +2333,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="7" t="s">
         <v>84</v>
       </c>
@@ -2331,7 +2349,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="10" t="s">
         <v>84</v>
       </c>
@@ -2365,7 +2383,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="2" t="s">
         <v>84</v>
       </c>
@@ -2397,7 +2415,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2" t="s">
         <v>84</v>
       </c>
@@ -2411,7 +2429,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="2" t="s">
         <v>84</v>
       </c>
@@ -2422,7 +2440,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="7" t="s">
         <v>85</v>
       </c>
@@ -2435,7 +2453,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
@@ -2451,7 +2469,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
@@ -2462,7 +2480,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
@@ -2473,7 +2491,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="2" t="s">
         <v>85</v>
       </c>
@@ -2487,7 +2505,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -2505,7 +2523,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="2" t="s">
         <v>86</v>
       </c>
@@ -2518,7 +2536,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="2" t="s">
         <v>86</v>
       </c>
@@ -2532,7 +2550,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
         <v>86</v>
       </c>
@@ -2543,7 +2561,7 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="2" t="s">
         <v>86</v>
       </c>
@@ -2554,7 +2572,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="8" t="s">
         <v>87</v>
       </c>
@@ -2570,7 +2588,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2586,7 +2604,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="2" t="s">
         <v>87</v>
       </c>
@@ -2597,7 +2615,7 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="2" t="s">
         <v>87</v>
       </c>
@@ -2608,7 +2626,7 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="2" t="s">
         <v>87</v>
       </c>
@@ -2622,7 +2640,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="8" t="s">
         <v>88</v>
       </c>
@@ -2635,7 +2653,7 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="2" t="s">
         <v>88</v>
       </c>
@@ -2648,7 +2666,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="2" t="s">
         <v>88</v>
       </c>
@@ -2662,7 +2680,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="2" t="s">
         <v>88</v>
       </c>
@@ -2676,7 +2694,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="2" t="s">
         <v>88</v>
       </c>
@@ -2690,7 +2708,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="8" t="s">
         <v>89</v>
       </c>
@@ -2703,7 +2721,7 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
@@ -2716,7 +2734,7 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2" t="s">
         <v>89</v>
       </c>
@@ -2730,7 +2748,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
@@ -2744,7 +2762,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="2" t="s">
         <v>89</v>
       </c>
@@ -2758,7 +2776,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -2776,7 +2794,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="2" t="s">
         <v>90</v>
       </c>
@@ -2792,7 +2810,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
@@ -2806,7 +2824,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="2" t="s">
         <v>90</v>
       </c>
@@ -2817,7 +2835,7 @@
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
@@ -2828,7 +2846,7 @@
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="9" t="s">
         <v>91</v>
       </c>
@@ -2841,7 +2859,7 @@
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
@@ -2854,7 +2872,7 @@
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
@@ -2865,7 +2883,7 @@
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="2" t="s">
         <v>91</v>
       </c>
@@ -2876,7 +2894,7 @@
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="2" t="s">
         <v>91</v>
       </c>
@@ -2887,7 +2905,7 @@
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="9" t="s">
         <v>92</v>
       </c>
@@ -2900,7 +2918,7 @@
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="2" t="s">
         <v>92</v>
       </c>
@@ -2913,7 +2931,7 @@
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="2" t="s">
         <v>92</v>
       </c>
@@ -2924,7 +2942,7 @@
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="2" t="s">
         <v>92</v>
       </c>
@@ -2935,7 +2953,7 @@
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="2" t="s">
         <v>92</v>
       </c>
@@ -2946,7 +2964,7 @@
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="9" t="s">
         <v>93</v>
       </c>
@@ -2959,7 +2977,7 @@
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="2" t="s">
         <v>93</v>
       </c>
@@ -2972,7 +2990,7 @@
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="2" t="s">
         <v>93</v>
       </c>
@@ -2981,7 +2999,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="2" t="s">
         <v>93</v>
       </c>
@@ -2990,7 +3008,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="2" t="s">
         <v>93</v>
       </c>
@@ -3056,13 +3074,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="15" t="s">
         <v>99</v>
       </c>
       <c r="E68" s="2"/>
@@ -3070,13 +3088,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="15" t="s">
         <v>100</v>
       </c>
       <c r="E69" s="2"/>
@@ -3084,26 +3102,26 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="15" t="s">
         <v>99</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3141,7 +3159,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -3155,7 +3173,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
@@ -3167,7 +3185,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2" t="s">
         <v>82</v>
       </c>
@@ -3179,7 +3197,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
@@ -3191,7 +3209,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="2" t="s">
         <v>82</v>
       </c>
@@ -3203,7 +3221,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
         <v>83</v>
       </c>
@@ -3215,7 +3233,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="2" t="s">
         <v>83</v>
       </c>
@@ -3227,7 +3245,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="2" t="s">
         <v>83</v>
       </c>
@@ -3239,7 +3257,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="7" t="s">
         <v>84</v>
       </c>
@@ -3251,7 +3269,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="10" t="s">
         <v>84</v>
       </c>
@@ -3263,7 +3281,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
@@ -3275,7 +3293,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="2" t="s">
         <v>84</v>
       </c>
@@ -3287,7 +3305,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2" t="s">
         <v>84</v>
       </c>
@@ -3299,7 +3317,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="2" t="s">
         <v>84</v>
       </c>
@@ -3311,7 +3329,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="7" t="s">
         <v>85</v>
       </c>
@@ -3323,7 +3341,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
@@ -3332,7 +3350,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
@@ -3341,7 +3359,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
@@ -3350,7 +3368,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -3361,7 +3379,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2" t="s">
         <v>86</v>
       </c>
@@ -3370,7 +3388,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="2" t="s">
         <v>86</v>
       </c>
@@ -3379,7 +3397,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="2" t="s">
         <v>86</v>
       </c>
@@ -3388,7 +3406,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
         <v>86</v>
       </c>
@@ -3397,7 +3415,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="8" t="s">
         <v>87</v>
       </c>
@@ -3406,7 +3424,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="2" t="s">
         <v>87</v>
       </c>
@@ -3415,7 +3433,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="2" t="s">
         <v>87</v>
       </c>
@@ -3424,7 +3442,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="8" t="s">
         <v>88</v>
       </c>
@@ -3433,7 +3451,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="2" t="s">
         <v>88</v>
       </c>
@@ -3442,7 +3460,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="2" t="s">
         <v>88</v>
       </c>
@@ -3451,7 +3469,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="2" t="s">
         <v>88</v>
       </c>
@@ -3460,7 +3478,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="2" t="s">
         <v>88</v>
       </c>
@@ -3469,7 +3487,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="2" t="s">
         <v>88</v>
       </c>
@@ -3478,7 +3496,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="2" t="s">
         <v>88</v>
       </c>
@@ -3487,7 +3505,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="8" t="s">
         <v>89</v>
       </c>
@@ -3496,7 +3514,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="2" t="s">
         <v>89</v>
       </c>
@@ -3505,7 +3523,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
@@ -3610,18 +3628,18 @@
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
@@ -3630,18 +3648,18 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3672,7 +3690,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -3686,7 +3704,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
@@ -3698,7 +3716,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="2" t="s">
         <v>86</v>
       </c>
@@ -3710,7 +3728,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
         <v>86</v>
       </c>
@@ -3722,7 +3740,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
         <v>86</v>
       </c>
@@ -3734,7 +3752,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="8" t="s">
         <v>87</v>
       </c>
@@ -3746,7 +3764,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="2" t="s">
         <v>87</v>
       </c>
@@ -3758,7 +3776,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="2" t="s">
         <v>87</v>
       </c>
@@ -3770,7 +3788,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="8" t="s">
         <v>88</v>
       </c>
@@ -3782,7 +3800,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>88</v>
       </c>
@@ -3794,7 +3812,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>88</v>
       </c>
@@ -3806,7 +3824,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>88</v>
       </c>
@@ -3818,7 +3836,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="2" t="s">
         <v>88</v>
       </c>
@@ -3830,7 +3848,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="2" t="s">
         <v>88</v>
       </c>
@@ -3842,7 +3860,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="2" t="s">
         <v>88</v>
       </c>
@@ -3854,7 +3872,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="8" t="s">
         <v>89</v>
       </c>
@@ -3866,7 +3884,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2" t="s">
         <v>89</v>
       </c>
@@ -3878,7 +3896,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>89</v>
       </c>
